--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\project_control\MATERIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE43FAE-D370-D440-B8AE-F5287F460A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA612C-4A95-4BB4-AAF7-43A13747B623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="19755" windowHeight="12660" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -31,19 +31,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DISCIPLINAS!$A$1:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">STATUS!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -358,9 +349,6 @@
     <t>Projeto Porto Segundo</t>
   </si>
   <si>
-    <t>IMPEDIMENTA AS</t>
-  </si>
-  <si>
     <t>Projeto implantação dos istema de SDAI</t>
   </si>
   <si>
@@ -404,6 +392,9 @@
   </si>
   <si>
     <t>FORMATO</t>
+  </si>
+  <si>
+    <t>IMPEDIMENTA Ltda</t>
   </si>
 </sst>
 </file>
@@ -800,18 +791,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998DF3DB-5027-4BDE-BFB5-DA5C0F46C3FE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -833,15 +824,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -857,18 +848,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +870,7 @@
         <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>17</v>
@@ -888,13 +879,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -920,7 +911,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -946,7 +937,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -972,7 +963,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -998,7 +989,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1067,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1093,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1119,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1145,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1171,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1197,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1223,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1249,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1275,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1327,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1353,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1379,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1483,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1509,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1535,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1561,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1587,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1613,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1665,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1691,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1740,22 +1731,22 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1813,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2070,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2134,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2317,16 +2308,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2366,7 +2357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2446,7 +2437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2466,7 +2457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2486,7 +2477,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2497,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2680,42 +2671,42 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2729,20 +2720,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2750,13 +2741,13 @@
         <v>63</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2802,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2825,7 +2816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2848,7 +2839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2871,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2894,7 +2885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +2908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2940,7 +2931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2963,7 +2954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2986,7 +2977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3032,7 +3023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3078,7 +3069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3101,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3136,17 +3127,17 @@
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3154,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3162,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3183,17 +3174,17 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3201,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3209,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3217,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3225,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3233,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3241,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -3249,7 +3240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3257,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3265,7 +3256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3273,7 +3264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3294,17 +3285,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3312,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3349,67 +3340,67 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -3427,27 +3418,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3466,19 +3457,19 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -3489,48 +3480,48 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
